--- a/САВР/Лабораторные/lab7/Lab7_Var№5_Кендысь.xlsx
+++ b/САВР/Лабораторные/lab7/Lab7_Var№5_Кендысь.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\studies\САВР\Лабораторные\lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B847EFC4-2A52-4443-9027-E2915701AE21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010CF0BE-6D0F-4C84-B3FD-DC4BF3881C56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,57 +456,6 @@
   </si>
   <si>
     <r>
-      <t>Значение r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> говорит об умеренной обратной зависимости. Нулевая гипотеза отвергается, т.е. величина r</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ty</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> значима (уровень значимости 0.02). Тренд неслучайным образом отличается от нуля и вносит вклад в формирование изменивости ряда.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>η</t>
     </r>
     <r>
@@ -656,6 +605,57 @@
     <t>Модель среднего качества и требует уточнения.
 Величина коэффициента корреляции является значимой. Тем не менее, дисперсия ошибки велика и превышает допустимую. Коэффициент детерминации меньше 0.7, причём намного, модель требует улучшения. Из всего этого можно сделать вывод, что модель не является адекватной, точность аппроксимации недостаточна.
 Из графика тренда видно, что он относительно неплохо описывает данные, но некоторые значения лежат довольно далеко от линии, т.е. есть значительные отклонения от фактических значений температуры. Тренд имеет отрицательный характер, т.е. он описывает падение температуры воды. Физические причины такого характера выявить довольно сложно, ведь в мире наблюдается, скорее, повышение температуры. Возможно, спад температуры произошёл из-за характера течений в океане.</t>
+  </si>
+  <si>
+    <r>
+      <t>Значение r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> говорит об умеренной обратной зависимости. Нулевая гипотеза отвергается, т.е. величина r</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ty</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> значима (уровень значимости 0.02). Тренд неслучайным образом отличается от нуля и вносит вклад в формирование изменчивости ряда.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -974,31 +974,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1007,17 +1004,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1025,23 +1016,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1049,13 +1031,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1086,34 +1071,49 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4239,7 +4239,7 @@
   <dimension ref="A1:L91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G96" sqref="G96"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4259,62 +4259,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="33"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="30" t="s">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="61"/>
       <c r="C4" s="5">
         <f>SUMPRODUCT(I23:I59, B23:B59)/SUMSQ(I23:I59)</f>
         <v>-2.3660502607870997E-2</v>
@@ -4325,15 +4325,15 @@
       <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="55"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="61"/>
       <c r="C5" s="5">
         <f>B61</f>
         <v>8.0513513513513519</v>
@@ -4344,15 +4344,15 @@
       <c r="G5" s="5"/>
       <c r="H5" s="1"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="1">
         <f>PEARSON(I23:I59, B23:B59)</f>
         <v>-0.47991441591343187</v>
@@ -4360,7 +4360,7 @@
       <c r="D6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="18">
         <f>SQRT((1-C6^2)/(B60-2))</f>
         <v>0.14829335341992811</v>
       </c>
@@ -4377,17 +4377,17 @@
       <c r="I6" s="2">
         <v>2.44</v>
       </c>
-      <c r="J6" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="J6" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="56"/>
+      <c r="L6" s="24"/>
     </row>
     <row r="7" spans="1:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="39"/>
       <c r="C7" s="1">
         <f>SUM(K23:K59)/B60</f>
         <v>6.3819409736906016E-2</v>
@@ -4402,23 +4402,23 @@
       <c r="F7" s="15"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="14">
         <f>C7/(E9^2)</f>
         <v>0.23031784660152982</v>
       </c>
-      <c r="J7" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
+      <c r="J7" s="51" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
     </row>
     <row r="8" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="61"/>
       <c r="C8" s="5">
         <f>(E9^2)*(1-C6^2)</f>
         <v>0.21327335870721364</v>
@@ -4429,27 +4429,27 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="1">
         <f>SQRT(C8)</f>
         <v>0.46181528635073749</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="3">
         <f>_xlfn.STDEV.P(B23:B59)</f>
         <v>0.5263960186438722</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="21" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1">
@@ -4458,172 +4458,172 @@
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="49"/>
+      <c r="A10" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="44"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="52"/>
+      <c r="A11" s="45"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="47"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="52"/>
+      <c r="A12" s="45"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="47"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="52"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="47"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="50"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="52"/>
+      <c r="A14" s="45"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="47"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="53"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="50"/>
     </row>
     <row r="16" spans="1:12" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="65"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="65"/>
-      <c r="H16" s="65"/>
-      <c r="I16" s="65"/>
-      <c r="J16" s="65"/>
-      <c r="K16" s="65"/>
-      <c r="L16" s="65"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
       <c r="D18" s="1">
         <f>C4*20+C5</f>
         <v>7.5781412991939323</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="44" t="s">
+      <c r="D21" s="37"/>
+      <c r="E21" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="45"/>
-      <c r="G21" s="44" t="s">
+      <c r="F21" s="34"/>
+      <c r="G21" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="45"/>
-      <c r="I21" s="59" t="s">
+      <c r="H21" s="34"/>
+      <c r="I21" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="J21" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="K21" s="30" t="s">
+      <c r="L21" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="30" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="22" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="12">
         <v>8</v>
       </c>
-      <c r="E22" s="44"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
-      <c r="L22" s="30"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -4632,18 +4632,18 @@
       <c r="B23" s="1">
         <v>8.5</v>
       </c>
-      <c r="C23" s="34" t="str">
+      <c r="C23" s="31" t="str">
         <f>IF(B23&gt;$D$22, "+", IF(B23=$D$22, "", "-"))</f>
         <v>+</v>
       </c>
-      <c r="D23" s="35"/>
-      <c r="E23" s="34" t="str">
+      <c r="D23" s="32"/>
+      <c r="E23" s="31" t="str">
         <f>IF(B23&gt;B24, "+", IF(B23=B24, "", "-"))</f>
         <v>+</v>
       </c>
-      <c r="F23" s="35"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="35"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="32"/>
       <c r="I23" s="1">
         <f>-_xlfn.FLOOR.MATH(B60/2)</f>
         <v>-18</v>
@@ -4653,7 +4653,7 @@
         <v>8.4772403982930307</v>
       </c>
       <c r="K23" s="1">
-        <f>(J23-$B$61)^2</f>
+        <f t="shared" ref="K23:K59" si="0">(J23-$B$61)^2</f>
         <v>0.18138148030489143</v>
       </c>
       <c r="L23" s="1">
@@ -4668,32 +4668,32 @@
       <c r="B24" s="1">
         <v>8.4</v>
       </c>
-      <c r="C24" s="34" t="str">
-        <f t="shared" ref="C24:C59" si="0">IF(B24&gt;$D$22, "+", IF(B24=$D$22, "", "-"))</f>
+      <c r="C24" s="31" t="str">
+        <f t="shared" ref="C24:C59" si="1">IF(B24&gt;$D$22, "+", IF(B24=$D$22, "", "-"))</f>
         <v>+</v>
       </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="34" t="str">
-        <f t="shared" ref="E24:E58" si="1">IF(B24&gt;B25, "+", IF(B24=B25, "", "-"))</f>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31" t="str">
+        <f t="shared" ref="E24:E58" si="2">IF(B24&gt;B25, "+", IF(B24=B25, "", "-"))</f>
         <v>-</v>
       </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="35"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
       <c r="I24" s="1">
         <f>I23 + 1</f>
         <v>-17</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" ref="J24:J61" si="2">$C$4*I24+$C$5</f>
+        <f t="shared" ref="J24:J59" si="3">$C$4*I24+$C$5</f>
         <v>8.4535798956851593</v>
       </c>
       <c r="K24" s="1">
-        <f>(J24-$B$61)^2</f>
+        <f t="shared" si="0"/>
         <v>0.16178780187689365</v>
       </c>
       <c r="L24" s="1">
-        <f t="shared" ref="L24:L59" si="3">(B24-J24)^2</f>
+        <f t="shared" ref="L24:L59" si="4">(B24-J24)^2</f>
         <v>2.8708052216325172E-3</v>
       </c>
     </row>
@@ -4704,18 +4704,18 @@
       <c r="B25" s="1">
         <v>8.5</v>
       </c>
-      <c r="C25" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="C25" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="34" t="str">
-        <f t="shared" si="1"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="31" t="str">
+        <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="F25" s="35"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="35"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="32"/>
       <c r="I25" s="1">
         <f>I24 + 1</f>
         <v>-16</v>
@@ -4725,11 +4725,11 @@
         <v>8.429919393077288</v>
       </c>
       <c r="K25" s="1">
-        <f>(J25-$B$61)^2</f>
+        <f t="shared" si="0"/>
         <v>0.14331376221621006</v>
       </c>
       <c r="L25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9112914666556698E-3</v>
       </c>
     </row>
@@ -4740,35 +4740,35 @@
       <c r="B26" s="1">
         <v>8.5</v>
       </c>
-      <c r="C26" s="34" t="str">
-        <f t="shared" si="0"/>
+      <c r="C26" s="31" t="str">
+        <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="D26" s="35"/>
-      <c r="E26" s="34" t="str">
-        <f t="shared" si="1"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31" t="str">
+        <f t="shared" si="2"/>
         <v>-</v>
       </c>
-      <c r="F26" s="35"/>
-      <c r="G26" s="34">
+      <c r="F26" s="32"/>
+      <c r="G26" s="31">
         <f>SUM(B23:B29)/7</f>
         <v>8.4428571428571431</v>
       </c>
-      <c r="H26" s="35"/>
+      <c r="H26" s="32"/>
       <c r="I26" s="1">
-        <f t="shared" ref="I26:I61" si="4">I25 + 1</f>
+        <f t="shared" ref="I26:I59" si="5">I25 + 1</f>
         <v>-15</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.4062588904694167</v>
       </c>
       <c r="K26" s="1">
-        <f>(J26-$B$61)^2</f>
+        <f t="shared" si="0"/>
         <v>0.12595936132284064</v>
       </c>
       <c r="L26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.7873956160248231E-3</v>
       </c>
     </row>
@@ -4779,35 +4779,35 @@
       <c r="B27" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C27" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="34" t="str">
+      <c r="C27" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F27" s="35"/>
-      <c r="G27" s="34">
+      <c r="D27" s="32"/>
+      <c r="E27" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F27" s="32"/>
+      <c r="G27" s="31">
         <f>SUM(B24:B30)/7</f>
         <v>8.5285714285714285</v>
       </c>
-      <c r="H27" s="35"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="1">
+        <f t="shared" si="5"/>
+        <v>-14</v>
+      </c>
+      <c r="J27" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3825983878615453</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10972459919678539</v>
+      </c>
+      <c r="L27" s="1">
         <f t="shared" si="4"/>
-        <v>-14</v>
-      </c>
-      <c r="J27" s="1">
-        <f t="shared" si="2"/>
-        <v>8.3825983878615453</v>
-      </c>
-      <c r="K27" s="1">
-        <f>(J27-$B$61)^2</f>
-        <v>0.10972459919678539</v>
-      </c>
-      <c r="L27" s="1">
-        <f t="shared" si="3"/>
         <v>0.17422410581578154</v>
       </c>
     </row>
@@ -4818,35 +4818,35 @@
       <c r="B28" s="1">
         <v>7.9</v>
       </c>
-      <c r="C28" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="34" t="str">
+      <c r="C28" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="34">
-        <f t="shared" ref="G28:G55" si="5">SUM(B25:B31)/7</f>
+      <c r="D28" s="32"/>
+      <c r="E28" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F28" s="32"/>
+      <c r="G28" s="31">
+        <f t="shared" ref="G28:G55" si="6">SUM(B25:B31)/7</f>
         <v>8.6</v>
       </c>
-      <c r="H28" s="35"/>
+      <c r="H28" s="32"/>
       <c r="I28" s="1">
+        <f t="shared" si="5"/>
+        <v>-13</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="3"/>
+        <v>8.358937885253674</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4609475838044313E-2</v>
+      </c>
+      <c r="L28" s="1">
         <f t="shared" si="4"/>
-        <v>-13</v>
-      </c>
-      <c r="J28" s="1">
-        <f t="shared" si="2"/>
-        <v>8.358937885253674</v>
-      </c>
-      <c r="K28" s="1">
-        <f>(J28-$B$61)^2</f>
-        <v>9.4609475838044313E-2</v>
-      </c>
-      <c r="L28" s="1">
-        <f t="shared" si="3"/>
         <v>0.21062398252111411</v>
       </c>
     </row>
@@ -4857,35 +4857,35 @@
       <c r="B29" s="1">
         <v>8.5</v>
       </c>
-      <c r="C29" s="34" t="str">
+      <c r="C29" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F29" s="32"/>
+      <c r="G29" s="31">
+        <f t="shared" si="6"/>
+        <v>8.6142857142857157</v>
+      </c>
+      <c r="H29" s="32"/>
+      <c r="I29" s="1">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3352773826458044</v>
+      </c>
+      <c r="K29" s="1">
         <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="34">
-        <f t="shared" si="5"/>
-        <v>8.6142857142857157</v>
-      </c>
-      <c r="H29" s="35"/>
-      <c r="I29" s="1">
+        <v>8.0613991246618416E-2</v>
+      </c>
+      <c r="L29" s="1">
         <f t="shared" si="4"/>
-        <v>-12</v>
-      </c>
-      <c r="J29" s="1">
-        <f t="shared" si="2"/>
-        <v>8.3352773826458044</v>
-      </c>
-      <c r="K29" s="1">
-        <f>(J29-$B$61)^2</f>
-        <v>8.0613991246618416E-2</v>
-      </c>
-      <c r="L29" s="1">
-        <f t="shared" si="3"/>
         <v>2.7133540668016733E-2</v>
       </c>
     </row>
@@ -4896,35 +4896,35 @@
       <c r="B30" s="1">
         <v>9.1</v>
       </c>
-      <c r="C30" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D30" s="35"/>
-      <c r="E30" s="34" t="str">
+      <c r="C30" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F30" s="35"/>
-      <c r="G30" s="34">
+      <c r="D30" s="32"/>
+      <c r="E30" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F30" s="32"/>
+      <c r="G30" s="31">
+        <f t="shared" si="6"/>
+        <v>8.5285714285714285</v>
+      </c>
+      <c r="H30" s="32"/>
+      <c r="I30" s="1">
         <f t="shared" si="5"/>
-        <v>8.5285714285714285</v>
-      </c>
-      <c r="H30" s="35"/>
-      <c r="I30" s="1">
+        <v>-11</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="3"/>
+        <v>8.3116168800379331</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>6.77381454225056E-2</v>
+      </c>
+      <c r="L30" s="1">
         <f t="shared" si="4"/>
-        <v>-11</v>
-      </c>
-      <c r="J30" s="1">
-        <f t="shared" si="2"/>
-        <v>8.3116168800379331</v>
-      </c>
-      <c r="K30" s="1">
-        <f>(J30-$B$61)^2</f>
-        <v>6.77381454225056E-2</v>
-      </c>
-      <c r="L30" s="1">
-        <f t="shared" si="3"/>
         <v>0.62154794384112222</v>
       </c>
     </row>
@@ -4935,35 +4935,35 @@
       <c r="B31" s="1">
         <v>8.9</v>
       </c>
-      <c r="C31" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D31" s="35"/>
-      <c r="E31" s="34" t="str">
+      <c r="C31" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F31" s="35"/>
-      <c r="G31" s="34">
+      <c r="D31" s="32"/>
+      <c r="E31" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F31" s="32"/>
+      <c r="G31" s="31">
+        <f t="shared" si="6"/>
+        <v>8.4571428571428573</v>
+      </c>
+      <c r="H31" s="32"/>
+      <c r="I31" s="1">
         <f t="shared" si="5"/>
-        <v>8.4571428571428573</v>
-      </c>
-      <c r="H31" s="35"/>
-      <c r="I31" s="1">
+        <v>-10</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2879563774300617</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5981938365706953E-2</v>
+      </c>
+      <c r="L31" s="1">
         <f t="shared" si="4"/>
-        <v>-10</v>
-      </c>
-      <c r="J31" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2879563774300617</v>
-      </c>
-      <c r="K31" s="1">
-        <f>(J31-$B$61)^2</f>
-        <v>5.5981938365706953E-2</v>
-      </c>
-      <c r="L31" s="1">
-        <f t="shared" si="3"/>
         <v>0.37459739592853347</v>
       </c>
     </row>
@@ -4974,35 +4974,35 @@
       <c r="B32" s="1">
         <v>8.6</v>
       </c>
-      <c r="C32" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D32" s="35"/>
-      <c r="E32" s="34" t="str">
+      <c r="C32" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F32" s="35"/>
-      <c r="G32" s="34">
+      <c r="D32" s="32"/>
+      <c r="E32" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F32" s="32"/>
+      <c r="G32" s="31">
+        <f t="shared" si="6"/>
+        <v>8.5</v>
+      </c>
+      <c r="H32" s="32"/>
+      <c r="I32" s="1">
         <f t="shared" si="5"/>
-        <v>8.5</v>
-      </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="1">
+        <v>-9</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2642958748221904</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5345370076222476E-2</v>
+      </c>
+      <c r="L32" s="1">
         <f t="shared" si="4"/>
-        <v>-9</v>
-      </c>
-      <c r="J32" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2642958748221904</v>
-      </c>
-      <c r="K32" s="1">
-        <f>(J32-$B$61)^2</f>
-        <v>4.5345370076222476E-2</v>
-      </c>
-      <c r="L32" s="1">
-        <f t="shared" si="3"/>
         <v>0.11269725966139821</v>
       </c>
     </row>
@@ -5013,35 +5013,35 @@
       <c r="B33" s="1">
         <v>7.9</v>
       </c>
-      <c r="C33" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="34" t="str">
+      <c r="C33" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F33" s="35"/>
-      <c r="G33" s="34">
+      <c r="D33" s="32"/>
+      <c r="E33" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F33" s="32"/>
+      <c r="G33" s="31">
+        <f t="shared" si="6"/>
+        <v>8.4142857142857146</v>
+      </c>
+      <c r="H33" s="32"/>
+      <c r="I33" s="1">
         <f t="shared" si="5"/>
-        <v>8.4142857142857146</v>
-      </c>
-      <c r="H33" s="35"/>
-      <c r="I33" s="1">
+        <v>-8</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2406353722143191</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5828440554052182E-2</v>
+      </c>
+      <c r="L33" s="1">
         <f t="shared" si="4"/>
-        <v>-8</v>
-      </c>
-      <c r="J33" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2406353722143191</v>
-      </c>
-      <c r="K33" s="1">
-        <f>(J33-$B$61)^2</f>
-        <v>3.5828440554052182E-2</v>
-      </c>
-      <c r="L33" s="1">
-        <f t="shared" si="3"/>
         <v>0.11603245680358745</v>
       </c>
     </row>
@@ -5052,35 +5052,35 @@
       <c r="B34" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C34" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D34" s="35"/>
-      <c r="E34" s="34" t="str">
+      <c r="C34" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F34" s="35"/>
-      <c r="G34" s="34">
+      <c r="D34" s="32"/>
+      <c r="E34" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F34" s="32"/>
+      <c r="G34" s="31">
+        <f t="shared" si="6"/>
+        <v>8.2285714285714295</v>
+      </c>
+      <c r="H34" s="32"/>
+      <c r="I34" s="1">
         <f t="shared" si="5"/>
-        <v>8.2285714285714295</v>
-      </c>
-      <c r="H34" s="35"/>
-      <c r="I34" s="1">
+        <v>-7</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="3"/>
+        <v>8.2169748696064495</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7431149799196641E-2</v>
+      </c>
+      <c r="L34" s="1">
         <f t="shared" si="4"/>
-        <v>-7</v>
-      </c>
-      <c r="J34" s="1">
-        <f t="shared" si="2"/>
-        <v>8.2169748696064495</v>
-      </c>
-      <c r="K34" s="1">
-        <f>(J34-$B$61)^2</f>
-        <v>2.7431149799196641E-2</v>
-      </c>
-      <c r="L34" s="1">
-        <f t="shared" si="3"/>
         <v>6.8931722768661779E-3</v>
       </c>
     </row>
@@ -5091,35 +5091,35 @@
       <c r="B35" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C35" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D35" s="35"/>
-      <c r="E35" s="34" t="str">
+      <c r="C35" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F35" s="35"/>
-      <c r="G35" s="34">
+      <c r="D35" s="32"/>
+      <c r="E35" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F35" s="32"/>
+      <c r="G35" s="31">
+        <f t="shared" si="6"/>
+        <v>8.1142857142857139</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="1">
         <f t="shared" si="5"/>
-        <v>8.1142857142857139</v>
-      </c>
-      <c r="H35" s="35"/>
-      <c r="I35" s="1">
+        <v>-6</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1933143669985782</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0153497811654604E-2</v>
+      </c>
+      <c r="L35" s="1">
         <f t="shared" si="4"/>
-        <v>-6</v>
-      </c>
-      <c r="J35" s="1">
-        <f t="shared" si="2"/>
-        <v>8.1933143669985782</v>
-      </c>
-      <c r="K35" s="1">
-        <f>(J35-$B$61)^2</f>
-        <v>2.0153497811654604E-2</v>
-      </c>
-      <c r="L35" s="1">
-        <f t="shared" si="3"/>
         <v>4.4697688629691033E-5</v>
       </c>
     </row>
@@ -5130,35 +5130,35 @@
       <c r="B36" s="1">
         <v>7.9</v>
       </c>
-      <c r="C36" s="34" t="str">
+      <c r="C36" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="31">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="1">
+        <f t="shared" si="5"/>
+        <v>-5</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1696538643907068</v>
+      </c>
+      <c r="K36" s="1">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D36" s="35"/>
-      <c r="E36" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="F36" s="35"/>
-      <c r="G36" s="34">
-        <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="H36" s="35"/>
-      <c r="I36" s="1">
+        <v>1.3995484591426738E-2</v>
+      </c>
+      <c r="L36" s="1">
         <f t="shared" si="4"/>
-        <v>-5</v>
-      </c>
-      <c r="J36" s="1">
-        <f t="shared" si="2"/>
-        <v>8.1696538643907068</v>
-      </c>
-      <c r="K36" s="1">
-        <f>(J36-$B$61)^2</f>
-        <v>1.3995484591426738E-2</v>
-      </c>
-      <c r="L36" s="1">
-        <f t="shared" si="3"/>
         <v>7.271320658084153E-2</v>
       </c>
     </row>
@@ -5169,35 +5169,35 @@
       <c r="B37" s="1">
         <v>7.8</v>
       </c>
-      <c r="C37" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D37" s="35"/>
-      <c r="E37" s="34" t="str">
+      <c r="C37" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F37" s="35"/>
-      <c r="G37" s="34">
+      <c r="D37" s="32"/>
+      <c r="E37" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="31">
+        <f t="shared" si="6"/>
+        <v>8.0142857142857142</v>
+      </c>
+      <c r="H37" s="32"/>
+      <c r="I37" s="1">
         <f t="shared" si="5"/>
-        <v>8.0142857142857142</v>
-      </c>
-      <c r="H37" s="35"/>
-      <c r="I37" s="1">
+        <v>-4</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1459933617828355</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9571101385130455E-3</v>
+      </c>
+      <c r="L37" s="1">
         <f t="shared" si="4"/>
-        <v>-4</v>
-      </c>
-      <c r="J37" s="1">
-        <f t="shared" si="2"/>
-        <v>8.1459933617828355</v>
-      </c>
-      <c r="K37" s="1">
-        <f>(J37-$B$61)^2</f>
-        <v>8.9571101385130455E-3</v>
-      </c>
-      <c r="L37" s="1">
-        <f t="shared" si="3"/>
         <v>0.11971140639778823</v>
       </c>
     </row>
@@ -5208,35 +5208,35 @@
       <c r="B38" s="1">
         <v>8.1</v>
       </c>
-      <c r="C38" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D38" s="35"/>
-      <c r="E38" s="34" t="str">
+      <c r="C38" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="34">
+      <c r="D38" s="32"/>
+      <c r="E38" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="31">
+        <f t="shared" si="6"/>
+        <v>7.871428571428571</v>
+      </c>
+      <c r="H38" s="32"/>
+      <c r="I38" s="1">
         <f t="shared" si="5"/>
-        <v>7.871428571428571</v>
-      </c>
-      <c r="H38" s="35"/>
-      <c r="I38" s="1">
+        <v>-3</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="3"/>
+        <v>8.1223328591749642</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="0"/>
+        <v>5.0383744529135244E-3</v>
+      </c>
+      <c r="L38" s="1">
         <f t="shared" si="4"/>
-        <v>-3</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="2"/>
-        <v>8.1223328591749642</v>
-      </c>
-      <c r="K38" s="1">
-        <f>(J38-$B$61)^2</f>
-        <v>5.0383744529135244E-3</v>
-      </c>
-      <c r="L38" s="1">
-        <f t="shared" si="3"/>
         <v>4.9875659892879723E-4</v>
       </c>
     </row>
@@ -5247,35 +5247,35 @@
       <c r="B39" s="1">
         <v>7.8</v>
       </c>
-      <c r="C39" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D39" s="35"/>
-      <c r="E39" s="34" t="str">
+      <c r="C39" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F39" s="35"/>
-      <c r="G39" s="34">
+      <c r="D39" s="32"/>
+      <c r="E39" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F39" s="32"/>
+      <c r="G39" s="31">
+        <f t="shared" si="6"/>
+        <v>7.7285714285714278</v>
+      </c>
+      <c r="H39" s="32"/>
+      <c r="I39" s="1">
         <f t="shared" si="5"/>
-        <v>7.7285714285714278</v>
-      </c>
-      <c r="H39" s="35"/>
-      <c r="I39" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0986723565670946</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2392775346283451E-3</v>
+      </c>
+      <c r="L39" s="1">
         <f t="shared" si="4"/>
-        <v>-2</v>
-      </c>
-      <c r="J39" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0986723565670946</v>
-      </c>
-      <c r="K39" s="1">
-        <f>(J39-$B$61)^2</f>
-        <v>2.2392775346283451E-3</v>
-      </c>
-      <c r="L39" s="1">
-        <f t="shared" si="3"/>
         <v>8.920517657734181E-2</v>
       </c>
     </row>
@@ -5286,35 +5286,35 @@
       <c r="B40" s="1">
         <v>8</v>
       </c>
-      <c r="C40" s="34" t="str">
+      <c r="C40" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D40" s="32"/>
+      <c r="E40" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F40" s="32"/>
+      <c r="G40" s="31">
+        <f t="shared" si="6"/>
+        <v>7.757142857142858</v>
+      </c>
+      <c r="H40" s="32"/>
+      <c r="I40" s="1">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0750118539592233</v>
+      </c>
+      <c r="K40" s="1">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D40" s="35"/>
-      <c r="E40" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="F40" s="35"/>
-      <c r="G40" s="34">
-        <f t="shared" si="5"/>
-        <v>7.757142857142858</v>
-      </c>
-      <c r="H40" s="35"/>
-      <c r="I40" s="1">
+        <v>5.5981938365708627E-4</v>
+      </c>
+      <c r="L40" s="1">
         <f t="shared" si="4"/>
-        <v>-1</v>
-      </c>
-      <c r="J40" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0750118539592233</v>
-      </c>
-      <c r="K40" s="1">
-        <f>(J40-$B$61)^2</f>
-        <v>5.5981938365708627E-4</v>
-      </c>
-      <c r="L40" s="1">
-        <f t="shared" si="3"/>
         <v>5.6267782343998405E-3</v>
       </c>
     </row>
@@ -5325,35 +5325,35 @@
       <c r="B41" s="1">
         <v>7.3</v>
       </c>
-      <c r="C41" s="34" t="str">
+      <c r="C41" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D41" s="32"/>
+      <c r="E41" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F41" s="32"/>
+      <c r="G41" s="31">
+        <f t="shared" si="6"/>
+        <v>7.9142857142857137</v>
+      </c>
+      <c r="H41" s="32"/>
+      <c r="I41" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0513513513513519</v>
+      </c>
+      <c r="K41" s="1">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D41" s="35"/>
-      <c r="E41" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="F41" s="35"/>
-      <c r="G41" s="34">
-        <f t="shared" si="5"/>
-        <v>7.9142857142857137</v>
-      </c>
-      <c r="H41" s="35"/>
-      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="L41" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0513513513513519</v>
-      </c>
-      <c r="K41" s="1">
-        <f>(J41-$B$61)^2</f>
-        <v>0</v>
-      </c>
-      <c r="L41" s="1">
-        <f t="shared" si="3"/>
         <v>0.56452885317750301</v>
       </c>
     </row>
@@ -5364,35 +5364,35 @@
       <c r="B42" s="1">
         <v>7.2</v>
       </c>
-      <c r="C42" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="34" t="str">
+      <c r="C42" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="34">
+      <c r="D42" s="32"/>
+      <c r="E42" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F42" s="32"/>
+      <c r="G42" s="31">
+        <f t="shared" si="6"/>
+        <v>7.7714285714285714</v>
+      </c>
+      <c r="H42" s="32"/>
+      <c r="I42" s="1">
         <f t="shared" si="5"/>
-        <v>7.7714285714285714</v>
-      </c>
-      <c r="H42" s="35"/>
-      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0276908487434806</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" si="0"/>
+        <v>5.5981938365708627E-4</v>
+      </c>
+      <c r="L42" s="1">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0276908487434806</v>
-      </c>
-      <c r="K42" s="1">
-        <f>(J42-$B$61)^2</f>
-        <v>5.5981938365708627E-4</v>
-      </c>
-      <c r="L42" s="1">
-        <f t="shared" si="3"/>
         <v>0.68507214109370296</v>
       </c>
     </row>
@@ -5403,35 +5403,35 @@
       <c r="B43" s="1">
         <v>8.1</v>
       </c>
-      <c r="C43" s="34" t="str">
+      <c r="C43" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="D43" s="32"/>
+      <c r="E43" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F43" s="32"/>
+      <c r="G43" s="31">
+        <f t="shared" si="6"/>
+        <v>7.7</v>
+      </c>
+      <c r="H43" s="32"/>
+      <c r="I43" s="1">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0040303461356093</v>
+      </c>
+      <c r="K43" s="1">
         <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F43" s="35"/>
-      <c r="G43" s="34">
-        <f t="shared" si="5"/>
-        <v>7.7</v>
-      </c>
-      <c r="H43" s="35"/>
-      <c r="I43" s="1">
+        <v>2.2392775346283451E-3</v>
+      </c>
+      <c r="L43" s="1">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="J43" s="1">
-        <f t="shared" si="2"/>
-        <v>8.0040303461356093</v>
-      </c>
-      <c r="K43" s="1">
-        <f>(J43-$B$61)^2</f>
-        <v>2.2392775346283451E-3</v>
-      </c>
-      <c r="L43" s="1">
-        <f t="shared" si="3"/>
         <v>9.2101744628508998E-3</v>
       </c>
     </row>
@@ -5442,35 +5442,35 @@
       <c r="B44" s="1">
         <v>8.9</v>
       </c>
-      <c r="C44" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="34" t="str">
+      <c r="C44" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F44" s="35"/>
-      <c r="G44" s="34">
+      <c r="D44" s="32"/>
+      <c r="E44" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F44" s="32"/>
+      <c r="G44" s="31">
+        <f t="shared" si="6"/>
+        <v>7.6</v>
+      </c>
+      <c r="H44" s="32"/>
+      <c r="I44" s="1">
         <f t="shared" si="5"/>
-        <v>7.6</v>
-      </c>
-      <c r="H44" s="35"/>
-      <c r="I44" s="1">
+        <v>3</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9803698435277388</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" si="0"/>
+        <v>5.038374452913651E-3</v>
+      </c>
+      <c r="L44" s="1">
         <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J44" s="1">
-        <f t="shared" si="2"/>
-        <v>7.9803698435277388</v>
-      </c>
-      <c r="K44" s="1">
-        <f>(J44-$B$61)^2</f>
-        <v>5.038374452913651E-3</v>
-      </c>
-      <c r="L44" s="1">
-        <f t="shared" si="3"/>
         <v>0.84571962469319628</v>
       </c>
     </row>
@@ -5481,35 +5481,35 @@
       <c r="B45" s="1">
         <v>7.1</v>
       </c>
-      <c r="C45" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="34" t="str">
+      <c r="C45" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F45" s="35"/>
-      <c r="G45" s="34">
+      <c r="D45" s="32"/>
+      <c r="E45" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F45" s="32"/>
+      <c r="G45" s="31">
+        <f t="shared" si="6"/>
+        <v>7.6285714285714281</v>
+      </c>
+      <c r="H45" s="32"/>
+      <c r="I45" s="1">
         <f t="shared" si="5"/>
-        <v>7.6285714285714281</v>
-      </c>
-      <c r="H45" s="35"/>
-      <c r="I45" s="1">
+        <v>4</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9567093409198684</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9571101385130455E-3</v>
+      </c>
+      <c r="L45" s="1">
         <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="J45" s="1">
-        <f t="shared" si="2"/>
-        <v>7.9567093409198684</v>
-      </c>
-      <c r="K45" s="1">
-        <f>(J45-$B$61)^2</f>
-        <v>8.9571101385130455E-3</v>
-      </c>
-      <c r="L45" s="1">
-        <f t="shared" si="3"/>
         <v>0.73395089481935583</v>
       </c>
     </row>
@@ -5520,35 +5520,35 @@
       <c r="B46" s="1">
         <v>7.3</v>
       </c>
-      <c r="C46" s="34" t="str">
+      <c r="C46" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D46" s="32"/>
+      <c r="E46" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="F46" s="32"/>
+      <c r="G46" s="31">
+        <f t="shared" si="6"/>
+        <v>7.7285714285714286</v>
+      </c>
+      <c r="H46" s="32"/>
+      <c r="I46" s="1">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="3"/>
+        <v>7.933048838311997</v>
+      </c>
+      <c r="K46" s="1">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="F46" s="35"/>
-      <c r="G46" s="34">
-        <f t="shared" si="5"/>
-        <v>7.7285714285714286</v>
-      </c>
-      <c r="H46" s="35"/>
-      <c r="I46" s="1">
+        <v>1.3995484591426738E-2</v>
+      </c>
+      <c r="L46" s="1">
         <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="J46" s="1">
-        <f t="shared" si="2"/>
-        <v>7.933048838311997</v>
-      </c>
-      <c r="K46" s="1">
-        <f>(J46-$B$61)^2</f>
-        <v>1.3995484591426738E-2</v>
-      </c>
-      <c r="L46" s="1">
-        <f t="shared" si="3"/>
         <v>0.40075083168816916</v>
       </c>
     </row>
@@ -5559,35 +5559,35 @@
       <c r="B47" s="1">
         <v>7.3</v>
       </c>
-      <c r="C47" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="34" t="str">
+      <c r="C47" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F47" s="35"/>
-      <c r="G47" s="34">
+      <c r="D47" s="32"/>
+      <c r="E47" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F47" s="32"/>
+      <c r="G47" s="31">
+        <f t="shared" si="6"/>
+        <v>7.6571428571428575</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="1">
         <f t="shared" si="5"/>
-        <v>7.6571428571428575</v>
-      </c>
-      <c r="H47" s="35"/>
-      <c r="I47" s="1">
+        <v>6</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9093883357041257</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0153497811654604E-2</v>
+      </c>
+      <c r="L47" s="1">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="J47" s="1">
-        <f t="shared" si="2"/>
-        <v>7.9093883357041257</v>
-      </c>
-      <c r="K47" s="1">
-        <f>(J47-$B$61)^2</f>
-        <v>2.0153497811654604E-2</v>
-      </c>
-      <c r="L47" s="1">
-        <f t="shared" si="3"/>
         <v>0.3713541436922444</v>
       </c>
     </row>
@@ -5598,35 +5598,35 @@
       <c r="B48" s="1">
         <v>7.5</v>
       </c>
-      <c r="C48" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D48" s="35"/>
-      <c r="E48" s="34" t="str">
+      <c r="C48" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F48" s="35"/>
-      <c r="G48" s="34">
+      <c r="D48" s="32"/>
+      <c r="E48" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F48" s="32"/>
+      <c r="G48" s="31">
+        <f t="shared" si="6"/>
+        <v>7.5714285714285712</v>
+      </c>
+      <c r="H48" s="32"/>
+      <c r="I48" s="1">
         <f t="shared" si="5"/>
-        <v>7.5714285714285712</v>
-      </c>
-      <c r="H48" s="35"/>
-      <c r="I48" s="1">
+        <v>7</v>
+      </c>
+      <c r="J48" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8857278330962552</v>
+      </c>
+      <c r="K48" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7431149799196346E-2</v>
+      </c>
+      <c r="L48" s="1">
         <f t="shared" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="J48" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8857278330962552</v>
-      </c>
-      <c r="K48" s="1">
-        <f>(J48-$B$61)^2</f>
-        <v>2.7431149799196346E-2</v>
-      </c>
-      <c r="L48" s="1">
-        <f t="shared" si="3"/>
         <v>0.14878596122513255</v>
       </c>
     </row>
@@ -5637,35 +5637,35 @@
       <c r="B49" s="1">
         <v>7.9</v>
       </c>
-      <c r="C49" s="34" t="str">
+      <c r="C49" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D49" s="32"/>
+      <c r="E49" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F49" s="32"/>
+      <c r="G49" s="31">
+        <f t="shared" si="6"/>
+        <v>7.8428571428571434</v>
+      </c>
+      <c r="H49" s="32"/>
+      <c r="I49" s="1">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8620673304883839</v>
+      </c>
+      <c r="K49" s="1">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D49" s="35"/>
-      <c r="E49" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="F49" s="35"/>
-      <c r="G49" s="34">
-        <f t="shared" si="5"/>
-        <v>7.8428571428571434</v>
-      </c>
-      <c r="H49" s="35"/>
-      <c r="I49" s="1">
+        <v>3.5828440554052515E-2</v>
+      </c>
+      <c r="L49" s="1">
         <f t="shared" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="J49" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8620673304883839</v>
-      </c>
-      <c r="K49" s="1">
-        <f>(J49-$B$61)^2</f>
-        <v>3.5828440554052515E-2</v>
-      </c>
-      <c r="L49" s="1">
-        <f t="shared" si="3"/>
         <v>1.438887416277516E-3</v>
       </c>
     </row>
@@ -5676,35 +5676,35 @@
       <c r="B50" s="1">
         <v>7.6</v>
       </c>
-      <c r="C50" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D50" s="35"/>
-      <c r="E50" s="34" t="str">
+      <c r="C50" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F50" s="35"/>
-      <c r="G50" s="34">
+      <c r="D50" s="32"/>
+      <c r="E50" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F50" s="32"/>
+      <c r="G50" s="31">
+        <f t="shared" si="6"/>
+        <v>7.9571428571428582</v>
+      </c>
+      <c r="H50" s="32"/>
+      <c r="I50" s="1">
         <f t="shared" si="5"/>
-        <v>7.9571428571428582</v>
-      </c>
-      <c r="H50" s="35"/>
-      <c r="I50" s="1">
+        <v>9</v>
+      </c>
+      <c r="J50" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8384068278805126</v>
+      </c>
+      <c r="K50" s="1">
+        <f t="shared" si="0"/>
+        <v>4.5345370076222857E-2</v>
+      </c>
+      <c r="L50" s="1">
         <f t="shared" si="4"/>
-        <v>9</v>
-      </c>
-      <c r="J50" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8384068278805126</v>
-      </c>
-      <c r="K50" s="1">
-        <f>(J50-$B$61)^2</f>
-        <v>4.5345370076222857E-2</v>
-      </c>
-      <c r="L50" s="1">
-        <f t="shared" si="3"/>
         <v>5.6837815580048516E-2</v>
       </c>
     </row>
@@ -5715,35 +5715,35 @@
       <c r="B51" s="1">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C51" s="34" t="str">
+      <c r="C51" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>+</v>
+      </c>
+      <c r="D51" s="32"/>
+      <c r="E51" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F51" s="32"/>
+      <c r="G51" s="31">
+        <f t="shared" si="6"/>
+        <v>8.0285714285714285</v>
+      </c>
+      <c r="H51" s="32"/>
+      <c r="I51" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="J51" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8147463252726421</v>
+      </c>
+      <c r="K51" s="1">
         <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D51" s="35"/>
-      <c r="E51" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>-</v>
-      </c>
-      <c r="F51" s="35"/>
-      <c r="G51" s="34">
-        <f t="shared" si="5"/>
-        <v>8.0285714285714285</v>
-      </c>
-      <c r="H51" s="35"/>
-      <c r="I51" s="1">
+        <v>5.5981938365706953E-2</v>
+      </c>
+      <c r="L51" s="1">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="J51" s="1">
-        <f t="shared" si="2"/>
-        <v>7.8147463252726421</v>
-      </c>
-      <c r="K51" s="1">
-        <f>(J51-$B$61)^2</f>
-        <v>5.5981938365706953E-2</v>
-      </c>
-      <c r="L51" s="1">
-        <f t="shared" si="3"/>
         <v>0.23547112883640514</v>
       </c>
     </row>
@@ -5754,35 +5754,35 @@
       <c r="B52" s="1">
         <v>9</v>
       </c>
-      <c r="C52" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="34" t="str">
+      <c r="C52" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F52" s="35"/>
-      <c r="G52" s="34">
+      <c r="D52" s="32"/>
+      <c r="E52" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F52" s="32"/>
+      <c r="G52" s="31">
+        <f t="shared" si="6"/>
+        <v>8.1142857142857139</v>
+      </c>
+      <c r="H52" s="32"/>
+      <c r="I52" s="1">
         <f t="shared" si="5"/>
-        <v>8.1142857142857139</v>
-      </c>
-      <c r="H52" s="35"/>
-      <c r="I52" s="1">
+        <v>11</v>
+      </c>
+      <c r="J52" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7910858226647708</v>
+      </c>
+      <c r="K52" s="1">
+        <f t="shared" si="0"/>
+        <v>6.77381454225056E-2</v>
+      </c>
+      <c r="L52" s="1">
         <f t="shared" si="4"/>
-        <v>11</v>
-      </c>
-      <c r="J52" s="1">
-        <f t="shared" si="2"/>
-        <v>7.7910858226647708</v>
-      </c>
-      <c r="K52" s="1">
-        <f>(J52-$B$61)^2</f>
-        <v>6.77381454225056E-2</v>
-      </c>
-      <c r="L52" s="1">
-        <f t="shared" si="3"/>
         <v>1.4614734881621141</v>
       </c>
     </row>
@@ -5793,35 +5793,35 @@
       <c r="B53" s="1">
         <v>8.1</v>
       </c>
-      <c r="C53" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D53" s="35"/>
-      <c r="E53" s="34" t="str">
+      <c r="C53" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F53" s="35"/>
-      <c r="G53" s="34">
+      <c r="D53" s="32"/>
+      <c r="E53" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F53" s="32"/>
+      <c r="G53" s="31">
+        <f t="shared" si="6"/>
+        <v>8.0857142857142854</v>
+      </c>
+      <c r="H53" s="32"/>
+      <c r="I53" s="1">
         <f t="shared" si="5"/>
-        <v>8.0857142857142854</v>
-      </c>
-      <c r="H53" s="35"/>
-      <c r="I53" s="1">
+        <v>12</v>
+      </c>
+      <c r="J53" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7674253200569003</v>
+      </c>
+      <c r="K53" s="1">
+        <f t="shared" si="0"/>
+        <v>8.0613991246617903E-2</v>
+      </c>
+      <c r="L53" s="1">
         <f t="shared" si="4"/>
-        <v>12</v>
-      </c>
-      <c r="J53" s="1">
-        <f t="shared" si="2"/>
-        <v>7.7674253200569003</v>
-      </c>
-      <c r="K53" s="1">
-        <f>(J53-$B$61)^2</f>
-        <v>8.0613991246617903E-2</v>
-      </c>
-      <c r="L53" s="1">
-        <f t="shared" si="3"/>
         <v>0.11060591773925493</v>
       </c>
     </row>
@@ -5832,35 +5832,35 @@
       <c r="B54" s="1">
         <v>7.8</v>
       </c>
-      <c r="C54" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="34" t="str">
+      <c r="C54" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F54" s="35"/>
-      <c r="G54" s="34">
+      <c r="D54" s="32"/>
+      <c r="E54" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F54" s="32"/>
+      <c r="G54" s="31">
+        <f t="shared" si="6"/>
+        <v>8.1428571428571423</v>
+      </c>
+      <c r="H54" s="32"/>
+      <c r="I54" s="1">
         <f t="shared" si="5"/>
-        <v>8.1428571428571423</v>
-      </c>
-      <c r="H54" s="35"/>
-      <c r="I54" s="1">
+        <v>13</v>
+      </c>
+      <c r="J54" s="1">
+        <f t="shared" si="3"/>
+        <v>7.743764817449029</v>
+      </c>
+      <c r="K54" s="1">
+        <f t="shared" si="0"/>
+        <v>9.4609475838044854E-2</v>
+      </c>
+      <c r="L54" s="1">
         <f t="shared" si="4"/>
-        <v>13</v>
-      </c>
-      <c r="J54" s="1">
-        <f t="shared" si="2"/>
-        <v>7.743764817449029</v>
-      </c>
-      <c r="K54" s="1">
-        <f>(J54-$B$61)^2</f>
-        <v>9.4609475838044854E-2</v>
-      </c>
-      <c r="L54" s="1">
-        <f t="shared" si="3"/>
         <v>3.1623957565410127E-3</v>
       </c>
     </row>
@@ -5871,35 +5871,35 @@
       <c r="B55" s="1">
         <v>8.1</v>
       </c>
-      <c r="C55" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>+</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="34" t="str">
+      <c r="C55" s="31" t="str">
         <f t="shared" si="1"/>
         <v>+</v>
       </c>
-      <c r="F55" s="35"/>
-      <c r="G55" s="34">
+      <c r="D55" s="32"/>
+      <c r="E55" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F55" s="32"/>
+      <c r="G55" s="31">
+        <f t="shared" si="6"/>
+        <v>8.0142857142857142</v>
+      </c>
+      <c r="H55" s="32"/>
+      <c r="I55" s="1">
         <f t="shared" si="5"/>
-        <v>8.0142857142857142</v>
-      </c>
-      <c r="H55" s="35"/>
-      <c r="I55" s="1">
+        <v>14</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7201043148411577</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="0"/>
+        <v>0.10972459919678598</v>
+      </c>
+      <c r="L55" s="1">
         <f t="shared" si="4"/>
-        <v>14</v>
-      </c>
-      <c r="J55" s="1">
-        <f t="shared" si="2"/>
-        <v>7.7201043148411577</v>
-      </c>
-      <c r="K55" s="1">
-        <f>(J55-$B$61)^2</f>
-        <v>0.10972459919678598</v>
-      </c>
-      <c r="L55" s="1">
-        <f t="shared" si="3"/>
         <v>0.14432073160230599</v>
       </c>
     </row>
@@ -5910,35 +5910,35 @@
       <c r="B56" s="1">
         <v>7.7</v>
       </c>
-      <c r="C56" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D56" s="35"/>
-      <c r="E56" s="34" t="str">
+      <c r="C56" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F56" s="35"/>
-      <c r="G56" s="34">
+      <c r="D56" s="32"/>
+      <c r="E56" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F56" s="32"/>
+      <c r="G56" s="31">
         <f>SUM(B53:B59)/7</f>
         <v>7.8142857142857149</v>
       </c>
-      <c r="H56" s="35"/>
+      <c r="H56" s="32"/>
       <c r="I56" s="1">
+        <f t="shared" si="5"/>
+        <v>15</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6964438122332872</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12595936132284064</v>
+      </c>
+      <c r="L56" s="1">
         <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="J56" s="1">
-        <f t="shared" si="2"/>
-        <v>7.6964438122332872</v>
-      </c>
-      <c r="K56" s="1">
-        <f>(J56-$B$61)^2</f>
-        <v>0.12595936132284064</v>
-      </c>
-      <c r="L56" s="1">
-        <f t="shared" si="3"/>
         <v>1.2646471432118905E-5</v>
       </c>
     </row>
@@ -5949,32 +5949,32 @@
       <c r="B57" s="1">
         <v>8</v>
       </c>
-      <c r="C57" s="34" t="str">
+      <c r="C57" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D57" s="32"/>
+      <c r="E57" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>+</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="1">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J57" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6727833096254159</v>
+      </c>
+      <c r="K57" s="1">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="D57" s="35"/>
-      <c r="E57" s="34" t="str">
-        <f t="shared" si="1"/>
-        <v>+</v>
-      </c>
-      <c r="F57" s="35"/>
-      <c r="G57" s="34"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="1">
+        <v>0.14331376221621006</v>
+      </c>
+      <c r="L57" s="1">
         <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="J57" s="1">
-        <f t="shared" si="2"/>
-        <v>7.6727833096254159</v>
-      </c>
-      <c r="K57" s="1">
-        <f>(J57-$B$61)^2</f>
-        <v>0.14331376221621006</v>
-      </c>
-      <c r="L57" s="1">
-        <f t="shared" si="3"/>
         <v>0.10707076245969645</v>
       </c>
     </row>
@@ -5985,32 +5985,32 @@
       <c r="B58" s="1">
         <v>7.4</v>
       </c>
-      <c r="C58" s="34" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D58" s="35"/>
-      <c r="E58" s="34" t="str">
+      <c r="C58" s="31" t="str">
         <f t="shared" si="1"/>
         <v>-</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="35"/>
+      <c r="D58" s="32"/>
+      <c r="E58" s="31" t="str">
+        <f t="shared" si="2"/>
+        <v>-</v>
+      </c>
+      <c r="F58" s="32"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="32"/>
       <c r="I58" s="1">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6491228070175445</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="0"/>
+        <v>0.16178780187689365</v>
+      </c>
+      <c r="L58" s="1">
         <f t="shared" si="4"/>
-        <v>17</v>
-      </c>
-      <c r="J58" s="1">
-        <f t="shared" si="2"/>
-        <v>7.6491228070175445</v>
-      </c>
-      <c r="K58" s="1">
-        <f>(J58-$B$61)^2</f>
-        <v>0.16178780187689365</v>
-      </c>
-      <c r="L58" s="1">
-        <f t="shared" si="3"/>
         <v>6.2062172976300567E-2</v>
       </c>
     </row>
@@ -6021,29 +6021,29 @@
       <c r="B59" s="1">
         <v>7.6</v>
       </c>
-      <c r="C59" s="34" t="str">
+      <c r="C59" s="31" t="str">
+        <f t="shared" si="1"/>
+        <v>-</v>
+      </c>
+      <c r="D59" s="32"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="32"/>
+      <c r="I59" s="1">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="J59" s="1">
+        <f t="shared" si="3"/>
+        <v>7.6254623044096741</v>
+      </c>
+      <c r="K59" s="1">
         <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-      <c r="D59" s="35"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="1">
+        <v>0.18138148030489068</v>
+      </c>
+      <c r="L59" s="1">
         <f t="shared" si="4"/>
-        <v>18</v>
-      </c>
-      <c r="J59" s="1">
-        <f t="shared" si="2"/>
-        <v>7.6254623044096741</v>
-      </c>
-      <c r="K59" s="1">
-        <f>(J59-$B$61)^2</f>
-        <v>0.18138148030489068</v>
-      </c>
-      <c r="L59" s="1">
-        <f t="shared" si="3"/>
         <v>6.4832894585092709E-4</v>
       </c>
     </row>
@@ -6066,33 +6066,33 @@
       <c r="F60" s="1">
         <v>22</v>
       </c>
-      <c r="G60" s="62" t="s">
-        <v>41</v>
-      </c>
-      <c r="H60" s="63"/>
+      <c r="G60" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B61" s="1">
         <f>SUM(B23:B59)/B60</f>
         <v>8.0513513513513519</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="20" t="s">
         <v>21</v>
       </c>
       <c r="D61" s="1">
         <v>6</v>
       </c>
-      <c r="E61" s="61" t="s">
+      <c r="E61" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F61" s="1">
         <v>3</v>
       </c>
-      <c r="G61" s="62"/>
-      <c r="H61" s="63"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="30"/>
     </row>
     <row r="62" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C62" s="1" t="s">
@@ -6109,8 +6109,8 @@
         <f>(((2 * B60) - 1) / 3) - 1.96 * SQRT((16 * B60 - 29)/90)</f>
         <v>19.431156039291203</v>
       </c>
-      <c r="G62" s="62"/>
-      <c r="H62" s="63"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="30"/>
     </row>
     <row r="63" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
       <c r="C63" s="1" t="s">
@@ -6127,76 +6127,76 @@
         <f>6</f>
         <v>6</v>
       </c>
-      <c r="G63" s="62"/>
-      <c r="H63" s="63"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="30"/>
     </row>
     <row r="64" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="C64" s="56" t="s">
+      <c r="C64" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56" t="s">
+      <c r="D64" s="35"/>
+      <c r="E64" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F64" s="56"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="63"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="30"/>
     </row>
     <row r="65" spans="3:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="25" t="s">
+      <c r="C65" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D65" s="27"/>
-      <c r="E65" s="25" t="s">
+      <c r="D65" s="24"/>
+      <c r="E65" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F65" s="27"/>
-      <c r="G65" s="62"/>
-      <c r="H65" s="63"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="30"/>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C66" s="57"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="57"/>
-      <c r="F66" s="58"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="63"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="30"/>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="57"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="57"/>
-      <c r="F67" s="58"/>
-      <c r="G67" s="62"/>
-      <c r="H67" s="63"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C68" s="57"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="57"/>
-      <c r="F68" s="58"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="63"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="30"/>
     </row>
     <row r="69" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C69" s="57"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="58"/>
-      <c r="G69" s="62"/>
-      <c r="H69" s="63"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="30"/>
     </row>
     <row r="70" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C70" s="28"/>
-      <c r="D70" s="29"/>
-      <c r="E70" s="28"/>
-      <c r="F70" s="29"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="63"/>
+      <c r="C70" s="27"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="27"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="30"/>
     </row>
     <row r="71" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
+      <c r="C71" s="19"/>
+      <c r="D71" s="19"/>
     </row>
     <row r="89" spans="9:10" x14ac:dyDescent="0.3">
       <c r="I89" s="10"/>
@@ -6212,25 +6212,109 @@
     </row>
   </sheetData>
   <mergeCells count="144">
-    <mergeCell ref="C65:D70"/>
-    <mergeCell ref="E65:F70"/>
-    <mergeCell ref="G60:H70"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A10:L15"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F22"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="E52:F52"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="E55:F55"/>
+    <mergeCell ref="E56:F56"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="E51:F51"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="E45:F45"/>
+    <mergeCell ref="E46:F46"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="G21:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
     <mergeCell ref="E47:F47"/>
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
@@ -6247,115 +6331,31 @@
     <mergeCell ref="E39:F39"/>
     <mergeCell ref="E40:F40"/>
     <mergeCell ref="E41:F41"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="C65:D70"/>
+    <mergeCell ref="E65:F70"/>
+    <mergeCell ref="G60:H70"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G56:H56"/>
     <mergeCell ref="E57:F57"/>
     <mergeCell ref="E58:F58"/>
     <mergeCell ref="E59:F59"/>
-    <mergeCell ref="G21:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="E55:F55"/>
-    <mergeCell ref="E56:F56"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="E43:F43"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="E45:F45"/>
-    <mergeCell ref="E46:F46"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="E38:F38"/>
     <mergeCell ref="C58:D58"/>
     <mergeCell ref="C59:D59"/>
     <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A10:L15"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
